--- a/Code/Results/Cases/Case_1_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9696699780673913</v>
+        <v>1.026490916865734</v>
       </c>
       <c r="D2">
-        <v>1.03701617855195</v>
+        <v>1.030263256528299</v>
       </c>
       <c r="E2">
-        <v>0.9854351935971652</v>
+        <v>1.035281354641555</v>
       </c>
       <c r="F2">
-        <v>0.9865451185770304</v>
+        <v>1.043026249814855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04966493641165</v>
+        <v>1.02955528997503</v>
       </c>
       <c r="J2">
-        <v>0.9927973100341054</v>
+        <v>1.031654064059758</v>
       </c>
       <c r="K2">
-        <v>1.047982825807516</v>
+        <v>1.033074774661431</v>
       </c>
       <c r="L2">
-        <v>0.9971012391323471</v>
+        <v>1.03807840888099</v>
       </c>
       <c r="M2">
-        <v>0.9981951393699954</v>
+        <v>1.045801277101354</v>
       </c>
       <c r="N2">
-        <v>0.9942071960897968</v>
+        <v>1.033119131163119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9762733263671683</v>
+        <v>1.027842156397847</v>
       </c>
       <c r="D3">
-        <v>1.038724435454634</v>
+        <v>1.030606612076188</v>
       </c>
       <c r="E3">
-        <v>0.9912238284543036</v>
+        <v>1.03652365096261</v>
       </c>
       <c r="F3">
-        <v>0.9931008781123714</v>
+        <v>1.044448464980237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049990288268154</v>
+        <v>1.029546965970127</v>
       </c>
       <c r="J3">
-        <v>0.9974323881816309</v>
+        <v>1.032643018763664</v>
       </c>
       <c r="K3">
-        <v>1.04888469248286</v>
+        <v>1.033227698754684</v>
       </c>
       <c r="L3">
-        <v>1.001970247450317</v>
+        <v>1.039128916684577</v>
       </c>
       <c r="M3">
-        <v>1.003822802300925</v>
+        <v>1.047032844707646</v>
       </c>
       <c r="N3">
-        <v>0.9988488565799427</v>
+        <v>1.034109490296118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9804308563658365</v>
+        <v>1.028716173043294</v>
       </c>
       <c r="D4">
-        <v>1.039807736879433</v>
+        <v>1.030828240658591</v>
       </c>
       <c r="E4">
-        <v>0.9948753413945485</v>
+        <v>1.037327489195902</v>
       </c>
       <c r="F4">
-        <v>0.9972373129875093</v>
+        <v>1.045369012804245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050183150691575</v>
+        <v>1.029539753632458</v>
       </c>
       <c r="J4">
-        <v>1.000348744349649</v>
+        <v>1.033282201577143</v>
       </c>
       <c r="K4">
-        <v>1.049448332132398</v>
+        <v>1.0333253549493</v>
       </c>
       <c r="L4">
-        <v>1.005036012583142</v>
+        <v>1.039808101438636</v>
       </c>
       <c r="M4">
-        <v>1.007369195967843</v>
+        <v>1.047829512859632</v>
       </c>
       <c r="N4">
-        <v>1.00176935430823</v>
+        <v>1.034749580822508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9821525471818836</v>
+        <v>1.02908353615165</v>
       </c>
       <c r="D5">
-        <v>1.040257915130859</v>
+        <v>1.030921280219724</v>
       </c>
       <c r="E5">
-        <v>0.9963890650223154</v>
+        <v>1.037665423616462</v>
       </c>
       <c r="F5">
-        <v>0.9989523341857302</v>
+        <v>1.045756082122717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260008368905</v>
+        <v>1.029536283262584</v>
       </c>
       <c r="J5">
-        <v>1.0015559268498</v>
+        <v>1.033550740576031</v>
       </c>
       <c r="K5">
-        <v>1.049680534409773</v>
+        <v>1.033366097555123</v>
       </c>
       <c r="L5">
-        <v>1.006305567336981</v>
+        <v>1.040093498731202</v>
       </c>
       <c r="M5">
-        <v>1.008838501981718</v>
+        <v>1.048164378682872</v>
       </c>
       <c r="N5">
-        <v>1.002978251145997</v>
+        <v>1.035018501177576</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9824401345519936</v>
+        <v>1.029145213854658</v>
       </c>
       <c r="D6">
-        <v>1.040333195749662</v>
+        <v>1.030936894093018</v>
       </c>
       <c r="E6">
-        <v>0.9966420047254999</v>
+        <v>1.037722164438539</v>
       </c>
       <c r="F6">
-        <v>0.9992389272713703</v>
+        <v>1.045821077047701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050272665724133</v>
+        <v>1.029535674837201</v>
       </c>
       <c r="J6">
-        <v>1.001757539661114</v>
+        <v>1.033595819370691</v>
       </c>
       <c r="K6">
-        <v>1.049719244074493</v>
+        <v>1.033372920065691</v>
       </c>
       <c r="L6">
-        <v>1.006517627797344</v>
+        <v>1.040141410541831</v>
       </c>
       <c r="M6">
-        <v>1.009083970658863</v>
+        <v>1.048220601097659</v>
       </c>
       <c r="N6">
-        <v>1.003180150270629</v>
+        <v>1.035063643989295</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9804539625227741</v>
+        <v>1.028721082050322</v>
       </c>
       <c r="D7">
-        <v>1.039813772728468</v>
+        <v>1.030829484383945</v>
       </c>
       <c r="E7">
-        <v>0.9948956503519816</v>
+        <v>1.037332004684755</v>
       </c>
       <c r="F7">
-        <v>0.9972603215390067</v>
+        <v>1.045374184559297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050184194246958</v>
+        <v>1.029539708984861</v>
       </c>
       <c r="J7">
-        <v>1.000364947620684</v>
+        <v>1.033285790486255</v>
       </c>
       <c r="K7">
-        <v>1.049451453476574</v>
+        <v>1.033325900582478</v>
       </c>
       <c r="L7">
-        <v>1.005053050963264</v>
+        <v>1.039811915446027</v>
       </c>
       <c r="M7">
-        <v>1.007388912295901</v>
+        <v>1.047833987558758</v>
       </c>
       <c r="N7">
-        <v>1.001785580589769</v>
+        <v>1.034753174828282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9719263969704293</v>
+        <v>1.026947644726116</v>
       </c>
       <c r="D8">
-        <v>1.03759808224953</v>
+        <v>1.030379406564799</v>
       </c>
       <c r="E8">
-        <v>0.9874117050539664</v>
+        <v>1.03570119870601</v>
       </c>
       <c r="F8">
-        <v>0.9887833688435688</v>
+        <v>1.043506838681758</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049778551927297</v>
+        <v>1.02955285428455</v>
       </c>
       <c r="J8">
-        <v>0.994381525470327</v>
+        <v>1.031988440333347</v>
       </c>
       <c r="K8">
-        <v>1.048291754076944</v>
+        <v>1.033126723317437</v>
       </c>
       <c r="L8">
-        <v>0.9987649366676558</v>
+        <v>1.038433551539637</v>
       </c>
       <c r="M8">
-        <v>1.0001174511716</v>
+        <v>1.046217542688354</v>
       </c>
       <c r="N8">
-        <v>0.9957936612936499</v>
+        <v>1.033453982289349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9559446090233844</v>
+        <v>1.023819926531252</v>
       </c>
       <c r="D9">
-        <v>1.033523028001091</v>
+        <v>1.029582245551909</v>
       </c>
       <c r="E9">
-        <v>0.9734460404117525</v>
+        <v>1.032827278913259</v>
       </c>
       <c r="F9">
-        <v>0.9729712455718523</v>
+        <v>1.04021829376622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048928137280377</v>
+        <v>1.029562081003761</v>
       </c>
       <c r="J9">
-        <v>0.9831550979781937</v>
+        <v>1.029696565096052</v>
       </c>
       <c r="K9">
-        <v>1.046094662550544</v>
+        <v>1.032765901988229</v>
       </c>
       <c r="L9">
-        <v>0.9869851483119254</v>
+        <v>1.036000241370182</v>
       </c>
       <c r="M9">
-        <v>0.9865186154893664</v>
+        <v>1.043367172052731</v>
       </c>
       <c r="N9">
-        <v>0.9845512909867887</v>
+        <v>1.031158852326335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9445352670326965</v>
+        <v>1.021732687406677</v>
       </c>
       <c r="D10">
-        <v>1.030688880812372</v>
+        <v>1.029048220613477</v>
       </c>
       <c r="E10">
-        <v>0.9635236873254999</v>
+        <v>1.030910964937144</v>
       </c>
       <c r="F10">
-        <v>0.9617390381836062</v>
+        <v>1.038026988218159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04826943707582</v>
+        <v>1.029558927936093</v>
       </c>
       <c r="J10">
-        <v>0.9751364464460608</v>
+        <v>1.028164574574658</v>
       </c>
       <c r="K10">
-        <v>1.04452529702452</v>
+        <v>1.032518842347417</v>
       </c>
       <c r="L10">
-        <v>0.9785843171802242</v>
+        <v>1.034374845117876</v>
       </c>
       <c r="M10">
-        <v>0.9768352648021933</v>
+        <v>1.041465360200861</v>
       </c>
       <c r="N10">
-        <v>0.9765212520497281</v>
+        <v>1.029624686202679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9393867048017519</v>
+        <v>1.020828330211808</v>
       </c>
       <c r="D11">
-        <v>1.029433179004557</v>
+        <v>1.028816400681362</v>
       </c>
       <c r="E11">
-        <v>0.9590591648064886</v>
+        <v>1.030081045017767</v>
       </c>
       <c r="F11">
-        <v>0.9566850137326462</v>
+        <v>1.037078321730686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047962298172288</v>
+        <v>1.029555369739793</v>
       </c>
       <c r="J11">
-        <v>0.9715181138350977</v>
+        <v>1.027500197155752</v>
       </c>
       <c r="K11">
-        <v>1.04382058515441</v>
+        <v>1.032410340936442</v>
       </c>
       <c r="L11">
-        <v>0.9747967926556023</v>
+        <v>1.033670230717229</v>
       </c>
       <c r="M11">
-        <v>0.972472781069775</v>
+        <v>1.040641432365732</v>
       </c>
       <c r="N11">
-        <v>0.9728977809914289</v>
+        <v>1.028959365291633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9374401672417777</v>
+        <v>1.020492320724775</v>
       </c>
       <c r="D12">
-        <v>1.028962417322696</v>
+        <v>1.028730207336787</v>
       </c>
       <c r="E12">
-        <v>0.9573733632940506</v>
+        <v>1.029772750100411</v>
       </c>
       <c r="F12">
-        <v>0.9547765371059674</v>
+        <v>1.036725967244162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047844905527682</v>
+        <v>1.02955371971951</v>
       </c>
       <c r="J12">
-        <v>0.9701502469976464</v>
+        <v>1.027253261528089</v>
       </c>
       <c r="K12">
-        <v>1.043555011370238</v>
+        <v>1.032369811708957</v>
       </c>
       <c r="L12">
-        <v>0.9733654706982213</v>
+        <v>1.033408380493541</v>
       </c>
       <c r="M12">
-        <v>0.9708246484830209</v>
+        <v>1.040335319692193</v>
       </c>
       <c r="N12">
-        <v>0.9715279716261717</v>
+        <v>1.028712078987055</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9378593002460657</v>
+        <v>1.020564400104801</v>
       </c>
       <c r="D13">
-        <v>1.029063594547702</v>
+        <v>1.028748699911505</v>
       </c>
       <c r="E13">
-        <v>0.95773625560971</v>
+        <v>1.029838881637243</v>
       </c>
       <c r="F13">
-        <v>0.9551873679413334</v>
+        <v>1.036801547541351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047870236572856</v>
+        <v>1.029554088495152</v>
       </c>
       <c r="J13">
-        <v>0.9704447715298827</v>
+        <v>1.027306237190017</v>
       </c>
       <c r="K13">
-        <v>1.043612150892348</v>
+        <v>1.032378515607504</v>
       </c>
       <c r="L13">
-        <v>0.9736736350699291</v>
+        <v>1.033464553975997</v>
       </c>
       <c r="M13">
-        <v>0.9711794714952892</v>
+        <v>1.040400985102832</v>
       </c>
       <c r="N13">
-        <v>0.9718229144170262</v>
+        <v>1.028765129880499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9392265173911887</v>
+        <v>1.020800557450148</v>
       </c>
       <c r="D14">
-        <v>1.029394354529478</v>
+        <v>1.028809277633772</v>
       </c>
       <c r="E14">
-        <v>0.9589203903196744</v>
+        <v>1.030055561812355</v>
       </c>
       <c r="F14">
-        <v>0.9565279106931126</v>
+        <v>1.037049195569475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047952662022529</v>
+        <v>1.029555240040407</v>
       </c>
       <c r="J14">
-        <v>0.9714055439611932</v>
+        <v>1.027479788589222</v>
       </c>
       <c r="K14">
-        <v>1.043798710702483</v>
+        <v>1.032406995397466</v>
       </c>
       <c r="L14">
-        <v>0.9746789903252108</v>
+        <v>1.033648588669355</v>
       </c>
       <c r="M14">
-        <v>0.9723371251549088</v>
+        <v>1.04061613043405</v>
       </c>
       <c r="N14">
-        <v>0.9727850512553913</v>
+        <v>1.028938927742598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9400642910774744</v>
+        <v>1.020946049567315</v>
       </c>
       <c r="D15">
-        <v>1.029597570092012</v>
+        <v>1.028846590368057</v>
       </c>
       <c r="E15">
-        <v>0.9596462624169917</v>
+        <v>1.030189062087951</v>
       </c>
       <c r="F15">
-        <v>0.9573496482925076</v>
+        <v>1.037201782521287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048003008315739</v>
+        <v>1.029555906069241</v>
       </c>
       <c r="J15">
-        <v>0.9719942858358543</v>
+        <v>1.027586698515009</v>
       </c>
       <c r="K15">
-        <v>1.043913150207113</v>
+        <v>1.032424512714591</v>
       </c>
       <c r="L15">
-        <v>0.9752951186801014</v>
+        <v>1.033761961831765</v>
       </c>
       <c r="M15">
-        <v>0.9730466500534505</v>
+        <v>1.040748679270769</v>
       </c>
       <c r="N15">
-        <v>0.9733746292110441</v>
+        <v>1.029045989492742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9448723375458797</v>
+        <v>1.021792694161462</v>
       </c>
       <c r="D16">
-        <v>1.030771612411838</v>
+        <v>1.029063593663635</v>
       </c>
       <c r="E16">
-        <v>0.9638162575846039</v>
+        <v>1.030966040613384</v>
       </c>
       <c r="F16">
-        <v>0.9620702321611818</v>
+        <v>1.038089951519511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048289357867212</v>
+        <v>1.029559117975007</v>
       </c>
       <c r="J16">
-        <v>0.975373346537225</v>
+        <v>1.028208645405253</v>
       </c>
       <c r="K16">
-        <v>1.044571533557892</v>
+        <v>1.032526011298701</v>
       </c>
       <c r="L16">
-        <v>0.9788323635066937</v>
+        <v>1.034421590726031</v>
       </c>
       <c r="M16">
-        <v>0.9771210313184815</v>
+        <v>1.041520032120772</v>
       </c>
       <c r="N16">
-        <v>0.9767584885661945</v>
+        <v>1.029668819618909</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9478306417321067</v>
+        <v>1.022323615771931</v>
       </c>
       <c r="D17">
-        <v>1.031500389288461</v>
+        <v>1.029199559676678</v>
       </c>
       <c r="E17">
-        <v>0.966385494153959</v>
+        <v>1.031453377401597</v>
       </c>
       <c r="F17">
-        <v>0.9649786248522009</v>
+        <v>1.038647121976612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048463099425806</v>
+        <v>1.029560546404202</v>
       </c>
       <c r="J17">
-        <v>0.9774525326330228</v>
+        <v>1.028598501782261</v>
       </c>
       <c r="K17">
-        <v>1.044977760623806</v>
+        <v>1.032589272239751</v>
       </c>
       <c r="L17">
-        <v>0.981009746463378</v>
+        <v>1.034835139739719</v>
       </c>
       <c r="M17">
-        <v>0.9796298938512278</v>
+        <v>1.042003762906309</v>
       </c>
       <c r="N17">
-        <v>0.9788406273447341</v>
+        <v>1.030059229636689</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9495362877451485</v>
+        <v>1.022633238848842</v>
       </c>
       <c r="D18">
-        <v>1.031922726886212</v>
+        <v>1.029278809869972</v>
       </c>
       <c r="E18">
-        <v>0.9678680329210873</v>
+        <v>1.03173761916036</v>
       </c>
       <c r="F18">
-        <v>0.9666568595532715</v>
+        <v>1.038972128104004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048562326292331</v>
+        <v>1.029561167926103</v>
       </c>
       <c r="J18">
-        <v>0.9786513192533031</v>
+        <v>1.02882580069113</v>
       </c>
       <c r="K18">
-        <v>1.045212280040764</v>
+        <v>1.032626024211051</v>
       </c>
       <c r="L18">
-        <v>0.9822654559612195</v>
+        <v>1.035076278268112</v>
       </c>
       <c r="M18">
-        <v>0.9810770786392714</v>
+        <v>1.042285873631966</v>
       </c>
       <c r="N18">
-        <v>0.9800411163795181</v>
+        <v>1.03028685133608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9501145774253006</v>
+        <v>1.02273880323527</v>
       </c>
       <c r="D19">
-        <v>1.032066269069293</v>
+        <v>1.029305822478735</v>
       </c>
       <c r="E19">
-        <v>0.9683708808154985</v>
+        <v>1.031834536082859</v>
       </c>
       <c r="F19">
-        <v>0.9672260837796621</v>
+        <v>1.039082950004158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048595802006759</v>
+        <v>1.029561343914426</v>
       </c>
       <c r="J19">
-        <v>0.9790577592334665</v>
+        <v>1.02890328728206</v>
       </c>
       <c r="K19">
-        <v>1.045291834544301</v>
+        <v>1.032638530682611</v>
       </c>
       <c r="L19">
-        <v>0.9826912467026593</v>
+        <v>1.035158487224475</v>
       </c>
       <c r="M19">
-        <v>0.9815678485946835</v>
+        <v>1.042382059235768</v>
       </c>
       <c r="N19">
-        <v>0.9804481335510724</v>
+        <v>1.030364447966857</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9475153197331752</v>
+        <v>1.022266658587825</v>
       </c>
       <c r="D20">
-        <v>1.03142248282258</v>
+        <v>1.029184977633886</v>
       </c>
       <c r="E20">
-        <v>0.9661115151297465</v>
+        <v>1.031401092208852</v>
       </c>
       <c r="F20">
-        <v>0.9646684801205185</v>
+        <v>1.038587341033059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048444677328425</v>
+        <v>1.029560415031944</v>
       </c>
       <c r="J20">
-        <v>0.9772309133163168</v>
+        <v>1.02855668401827</v>
       </c>
       <c r="K20">
-        <v>1.044934427455083</v>
+        <v>1.032582500137955</v>
       </c>
       <c r="L20">
-        <v>0.9807776285025049</v>
+        <v>1.034790777901108</v>
       </c>
       <c r="M20">
-        <v>0.9793624068464698</v>
+        <v>1.041951867472192</v>
       </c>
       <c r="N20">
-        <v>0.9786186933031785</v>
+        <v>1.030017352486677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9388248728501455</v>
+        <v>1.020731017553108</v>
       </c>
       <c r="D21">
-        <v>1.029297074179585</v>
+        <v>1.02879144133297</v>
       </c>
       <c r="E21">
-        <v>0.9585724699427977</v>
+        <v>1.029991755644657</v>
       </c>
       <c r="F21">
-        <v>0.9561340374635184</v>
+        <v>1.036976268817576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047928481211587</v>
+        <v>1.029554909994162</v>
       </c>
       <c r="J21">
-        <v>0.9711232953331472</v>
+        <v>1.02742868637165</v>
       </c>
       <c r="K21">
-        <v>1.043743878990856</v>
+        <v>1.032398615060048</v>
       </c>
       <c r="L21">
-        <v>0.9743836304504004</v>
+        <v>1.033594398522078</v>
       </c>
       <c r="M21">
-        <v>0.9719970093496462</v>
+        <v>1.040552777442377</v>
       </c>
       <c r="N21">
-        <v>0.9725024018019193</v>
+        <v>1.028887752954016</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9331616882943199</v>
+        <v>1.019764970093797</v>
       </c>
       <c r="D22">
-        <v>1.027935616601712</v>
+        <v>1.0285435183423</v>
       </c>
       <c r="E22">
-        <v>0.9536720810642075</v>
+        <v>1.029105498996336</v>
       </c>
       <c r="F22">
-        <v>0.9505861411277555</v>
+        <v>1.035963451356113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047584783462657</v>
+        <v>1.029549549582982</v>
       </c>
       <c r="J22">
-        <v>0.9671440532038645</v>
+        <v>1.026718563481539</v>
       </c>
       <c r="K22">
-        <v>1.04297325966296</v>
+        <v>1.032281686918611</v>
       </c>
       <c r="L22">
-        <v>0.9702207718580962</v>
+        <v>1.032841461854167</v>
       </c>
       <c r="M22">
-        <v>0.9672044427999799</v>
+        <v>1.039672711468772</v>
       </c>
       <c r="N22">
-        <v>0.9685175086923876</v>
+        <v>1.028176621607948</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9361837723563773</v>
+        <v>1.020277142110416</v>
       </c>
       <c r="D23">
-        <v>1.028659752490994</v>
+        <v>1.028674992704237</v>
       </c>
       <c r="E23">
-        <v>0.9562858796420245</v>
+        <v>1.029575336107435</v>
       </c>
       <c r="F23">
-        <v>0.9535453790344369</v>
+        <v>1.036500354652359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047768804063363</v>
+        <v>1.029552570889732</v>
       </c>
       <c r="J23">
-        <v>0.9692674070650067</v>
+        <v>1.027095100184892</v>
       </c>
       <c r="K23">
-        <v>1.043383882872786</v>
+        <v>1.032343796520178</v>
       </c>
       <c r="L23">
-        <v>0.9724418206861088</v>
+        <v>1.033240677867888</v>
       </c>
       <c r="M23">
-        <v>0.9697612171678539</v>
+        <v>1.040139290747095</v>
       </c>
       <c r="N23">
-        <v>0.9706438779595643</v>
+        <v>1.028553693036609</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9476578614044584</v>
+        <v>1.022292395255737</v>
       </c>
       <c r="D24">
-        <v>1.031457693882518</v>
+        <v>1.029191566806252</v>
       </c>
       <c r="E24">
-        <v>0.966235363902716</v>
+        <v>1.031424717678507</v>
       </c>
       <c r="F24">
-        <v>0.9648086771702016</v>
+        <v>1.038614353412237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048453008012139</v>
+        <v>1.029560475047559</v>
       </c>
       <c r="J24">
-        <v>0.9773310965695958</v>
+        <v>1.028575579967526</v>
       </c>
       <c r="K24">
-        <v>1.044954015343837</v>
+        <v>1.032585560613934</v>
       </c>
       <c r="L24">
-        <v>0.9808825567303</v>
+        <v>1.034810823346057</v>
       </c>
       <c r="M24">
-        <v>0.9794833225831209</v>
+        <v>1.04197531691229</v>
       </c>
       <c r="N24">
-        <v>0.9787190188281681</v>
+        <v>1.030036275270348</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9602003410652747</v>
+        <v>1.024628864977666</v>
       </c>
       <c r="D25">
-        <v>1.0345970248035</v>
+        <v>1.029788797171083</v>
       </c>
       <c r="E25">
-        <v>0.9771572819130706</v>
+        <v>1.033570305248743</v>
       </c>
       <c r="F25">
-        <v>0.9771726338542438</v>
+        <v>1.041068256048337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049164116523449</v>
+        <v>1.029561340424493</v>
       </c>
       <c r="J25">
-        <v>0.9861455907071075</v>
+        <v>1.030289773934296</v>
       </c>
       <c r="K25">
-        <v>1.046680998318037</v>
+        <v>1.032860338570589</v>
       </c>
       <c r="L25">
-        <v>0.9901208636039752</v>
+        <v>1.036629858356135</v>
       </c>
       <c r="M25">
-        <v>0.9901359626837639</v>
+        <v>1.044104320226557</v>
       </c>
       <c r="N25">
-        <v>0.9875460305583917</v>
+        <v>1.031752903589171</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026490916865734</v>
+        <v>0.9696699780673907</v>
       </c>
       <c r="D2">
-        <v>1.030263256528299</v>
+        <v>1.03701617855195</v>
       </c>
       <c r="E2">
-        <v>1.035281354641555</v>
+        <v>0.9854351935971645</v>
       </c>
       <c r="F2">
-        <v>1.043026249814855</v>
+        <v>0.9865451185770301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02955528997503</v>
+        <v>1.04966493641165</v>
       </c>
       <c r="J2">
-        <v>1.031654064059758</v>
+        <v>0.992797310034105</v>
       </c>
       <c r="K2">
-        <v>1.033074774661431</v>
+        <v>1.047982825807516</v>
       </c>
       <c r="L2">
-        <v>1.03807840888099</v>
+        <v>0.9971012391323464</v>
       </c>
       <c r="M2">
-        <v>1.045801277101354</v>
+        <v>0.998195139369995</v>
       </c>
       <c r="N2">
-        <v>1.033119131163119</v>
+        <v>0.9942071960897962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027842156397847</v>
+        <v>0.9762733263671681</v>
       </c>
       <c r="D3">
-        <v>1.030606612076188</v>
+        <v>1.038724435454634</v>
       </c>
       <c r="E3">
-        <v>1.03652365096261</v>
+        <v>0.9912238284543031</v>
       </c>
       <c r="F3">
-        <v>1.044448464980237</v>
+        <v>0.9931008781123709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029546965970127</v>
+        <v>1.049990288268154</v>
       </c>
       <c r="J3">
-        <v>1.032643018763664</v>
+        <v>0.9974323881816306</v>
       </c>
       <c r="K3">
-        <v>1.033227698754684</v>
+        <v>1.04888469248286</v>
       </c>
       <c r="L3">
-        <v>1.039128916684577</v>
+        <v>1.001970247450316</v>
       </c>
       <c r="M3">
-        <v>1.047032844707646</v>
+        <v>1.003822802300925</v>
       </c>
       <c r="N3">
-        <v>1.034109490296118</v>
+        <v>0.9988488565799427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028716173043294</v>
+        <v>0.9804308563658359</v>
       </c>
       <c r="D4">
-        <v>1.030828240658591</v>
+        <v>1.039807736879433</v>
       </c>
       <c r="E4">
-        <v>1.037327489195902</v>
+        <v>0.9948753413945478</v>
       </c>
       <c r="F4">
-        <v>1.045369012804245</v>
+        <v>0.9972373129875087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029539753632458</v>
+        <v>1.050183150691575</v>
       </c>
       <c r="J4">
-        <v>1.033282201577143</v>
+        <v>1.000348744349649</v>
       </c>
       <c r="K4">
-        <v>1.0333253549493</v>
+        <v>1.049448332132398</v>
       </c>
       <c r="L4">
-        <v>1.039808101438636</v>
+        <v>1.005036012583141</v>
       </c>
       <c r="M4">
-        <v>1.047829512859632</v>
+        <v>1.007369195967843</v>
       </c>
       <c r="N4">
-        <v>1.034749580822508</v>
+        <v>1.00176935430823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02908353615165</v>
+        <v>0.9821525471818841</v>
       </c>
       <c r="D5">
-        <v>1.030921280219724</v>
+        <v>1.04025791513086</v>
       </c>
       <c r="E5">
-        <v>1.037665423616462</v>
+        <v>0.9963890650223156</v>
       </c>
       <c r="F5">
-        <v>1.045756082122717</v>
+        <v>0.9989523341857303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029536283262584</v>
+        <v>1.050260008368905</v>
       </c>
       <c r="J5">
-        <v>1.033550740576031</v>
+        <v>1.0015559268498</v>
       </c>
       <c r="K5">
-        <v>1.033366097555123</v>
+        <v>1.049680534409773</v>
       </c>
       <c r="L5">
-        <v>1.040093498731202</v>
+        <v>1.006305567336981</v>
       </c>
       <c r="M5">
-        <v>1.048164378682872</v>
+        <v>1.008838501981718</v>
       </c>
       <c r="N5">
-        <v>1.035018501177576</v>
+        <v>1.002978251145997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029145213854658</v>
+        <v>0.9824401345519934</v>
       </c>
       <c r="D6">
-        <v>1.030936894093018</v>
+        <v>1.040333195749662</v>
       </c>
       <c r="E6">
-        <v>1.037722164438539</v>
+        <v>0.9966420047254996</v>
       </c>
       <c r="F6">
-        <v>1.045821077047701</v>
+        <v>0.9992389272713695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029535674837201</v>
+        <v>1.050272665724133</v>
       </c>
       <c r="J6">
-        <v>1.033595819370691</v>
+        <v>1.001757539661114</v>
       </c>
       <c r="K6">
-        <v>1.033372920065691</v>
+        <v>1.049719244074493</v>
       </c>
       <c r="L6">
-        <v>1.040141410541831</v>
+        <v>1.006517627797344</v>
       </c>
       <c r="M6">
-        <v>1.048220601097659</v>
+        <v>1.009083970658862</v>
       </c>
       <c r="N6">
-        <v>1.035063643989295</v>
+        <v>1.003180150270629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028721082050322</v>
+        <v>0.9804539625227746</v>
       </c>
       <c r="D7">
-        <v>1.030829484383945</v>
+        <v>1.039813772728469</v>
       </c>
       <c r="E7">
-        <v>1.037332004684755</v>
+        <v>0.9948956503519821</v>
       </c>
       <c r="F7">
-        <v>1.045374184559297</v>
+        <v>0.9972603215390075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029539708984861</v>
+        <v>1.050184194246958</v>
       </c>
       <c r="J7">
-        <v>1.033285790486255</v>
+        <v>1.000364947620685</v>
       </c>
       <c r="K7">
-        <v>1.033325900582478</v>
+        <v>1.049451453476574</v>
       </c>
       <c r="L7">
-        <v>1.039811915446027</v>
+        <v>1.005053050963265</v>
       </c>
       <c r="M7">
-        <v>1.047833987558758</v>
+        <v>1.007388912295902</v>
       </c>
       <c r="N7">
-        <v>1.034753174828282</v>
+        <v>1.00178558058977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026947644726116</v>
+        <v>0.9719263969704289</v>
       </c>
       <c r="D8">
-        <v>1.030379406564799</v>
+        <v>1.03759808224953</v>
       </c>
       <c r="E8">
-        <v>1.03570119870601</v>
+        <v>0.9874117050539661</v>
       </c>
       <c r="F8">
-        <v>1.043506838681758</v>
+        <v>0.9887833688435687</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02955285428455</v>
+        <v>1.049778551927296</v>
       </c>
       <c r="J8">
-        <v>1.031988440333347</v>
+        <v>0.9943815254703267</v>
       </c>
       <c r="K8">
-        <v>1.033126723317437</v>
+        <v>1.048291754076944</v>
       </c>
       <c r="L8">
-        <v>1.038433551539637</v>
+        <v>0.9987649366676555</v>
       </c>
       <c r="M8">
-        <v>1.046217542688354</v>
+        <v>1.0001174511716</v>
       </c>
       <c r="N8">
-        <v>1.033453982289349</v>
+        <v>0.9957936612936495</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023819926531252</v>
+        <v>0.9559446090233851</v>
       </c>
       <c r="D9">
-        <v>1.029582245551909</v>
+        <v>1.03352302800109</v>
       </c>
       <c r="E9">
-        <v>1.032827278913259</v>
+        <v>0.9734460404117534</v>
       </c>
       <c r="F9">
-        <v>1.04021829376622</v>
+        <v>0.9729712455718531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029562081003761</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J9">
-        <v>1.029696565096052</v>
+        <v>0.9831550979781944</v>
       </c>
       <c r="K9">
-        <v>1.032765901988229</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L9">
-        <v>1.036000241370182</v>
+        <v>0.986985148311926</v>
       </c>
       <c r="M9">
-        <v>1.043367172052731</v>
+        <v>0.986518615489367</v>
       </c>
       <c r="N9">
-        <v>1.031158852326335</v>
+        <v>0.9845512909867895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021732687406677</v>
+        <v>0.944535267032697</v>
       </c>
       <c r="D10">
-        <v>1.029048220613477</v>
+        <v>1.030688880812372</v>
       </c>
       <c r="E10">
-        <v>1.030910964937144</v>
+        <v>0.9635236873255</v>
       </c>
       <c r="F10">
-        <v>1.038026988218159</v>
+        <v>0.9617390381836067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029558927936093</v>
+        <v>1.04826943707582</v>
       </c>
       <c r="J10">
-        <v>1.028164574574658</v>
+        <v>0.9751364464460611</v>
       </c>
       <c r="K10">
-        <v>1.032518842347417</v>
+        <v>1.044525297024521</v>
       </c>
       <c r="L10">
-        <v>1.034374845117876</v>
+        <v>0.9785843171802244</v>
       </c>
       <c r="M10">
-        <v>1.041465360200861</v>
+        <v>0.9768352648021938</v>
       </c>
       <c r="N10">
-        <v>1.029624686202679</v>
+        <v>0.9765212520497284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020828330211808</v>
+        <v>0.939386704801752</v>
       </c>
       <c r="D11">
-        <v>1.028816400681362</v>
+        <v>1.029433179004556</v>
       </c>
       <c r="E11">
-        <v>1.030081045017767</v>
+        <v>0.9590591648064887</v>
       </c>
       <c r="F11">
-        <v>1.037078321730686</v>
+        <v>0.9566850137326466</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029555369739793</v>
+        <v>1.047962298172288</v>
       </c>
       <c r="J11">
-        <v>1.027500197155752</v>
+        <v>0.9715181138350977</v>
       </c>
       <c r="K11">
-        <v>1.032410340936442</v>
+        <v>1.04382058515441</v>
       </c>
       <c r="L11">
-        <v>1.033670230717229</v>
+        <v>0.9747967926556024</v>
       </c>
       <c r="M11">
-        <v>1.040641432365732</v>
+        <v>0.9724727810697754</v>
       </c>
       <c r="N11">
-        <v>1.028959365291633</v>
+        <v>0.9728977809914287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020492320724775</v>
+        <v>0.9374401672417778</v>
       </c>
       <c r="D12">
-        <v>1.028730207336787</v>
+        <v>1.028962417322696</v>
       </c>
       <c r="E12">
-        <v>1.029772750100411</v>
+        <v>0.9573733632940508</v>
       </c>
       <c r="F12">
-        <v>1.036725967244162</v>
+        <v>0.9547765371059671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02955371971951</v>
+        <v>1.047844905527682</v>
       </c>
       <c r="J12">
-        <v>1.027253261528089</v>
+        <v>0.9701502469976465</v>
       </c>
       <c r="K12">
-        <v>1.032369811708957</v>
+        <v>1.043555011370238</v>
       </c>
       <c r="L12">
-        <v>1.033408380493541</v>
+        <v>0.9733654706982214</v>
       </c>
       <c r="M12">
-        <v>1.040335319692193</v>
+        <v>0.9708246484830207</v>
       </c>
       <c r="N12">
-        <v>1.028712078987055</v>
+        <v>0.9715279716261718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020564400104801</v>
+        <v>0.9378593002460651</v>
       </c>
       <c r="D13">
-        <v>1.028748699911505</v>
+        <v>1.029063594547702</v>
       </c>
       <c r="E13">
-        <v>1.029838881637243</v>
+        <v>0.9577362556097095</v>
       </c>
       <c r="F13">
-        <v>1.036801547541351</v>
+        <v>0.9551873679413327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029554088495152</v>
+        <v>1.047870236572856</v>
       </c>
       <c r="J13">
-        <v>1.027306237190017</v>
+        <v>0.9704447715298824</v>
       </c>
       <c r="K13">
-        <v>1.032378515607504</v>
+        <v>1.043612150892348</v>
       </c>
       <c r="L13">
-        <v>1.033464553975997</v>
+        <v>0.9736736350699287</v>
       </c>
       <c r="M13">
-        <v>1.040400985102832</v>
+        <v>0.9711794714952886</v>
       </c>
       <c r="N13">
-        <v>1.028765129880499</v>
+        <v>0.971822914417026</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020800557450148</v>
+        <v>0.9392265173911895</v>
       </c>
       <c r="D14">
-        <v>1.028809277633772</v>
+        <v>1.029394354529478</v>
       </c>
       <c r="E14">
-        <v>1.030055561812355</v>
+        <v>0.9589203903196749</v>
       </c>
       <c r="F14">
-        <v>1.037049195569475</v>
+        <v>0.9565279106931132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029555240040407</v>
+        <v>1.04795266202253</v>
       </c>
       <c r="J14">
-        <v>1.027479788589222</v>
+        <v>0.9714055439611937</v>
       </c>
       <c r="K14">
-        <v>1.032406995397466</v>
+        <v>1.043798710702484</v>
       </c>
       <c r="L14">
-        <v>1.033648588669355</v>
+        <v>0.9746789903252113</v>
       </c>
       <c r="M14">
-        <v>1.04061613043405</v>
+        <v>0.9723371251549092</v>
       </c>
       <c r="N14">
-        <v>1.028938927742598</v>
+        <v>0.9727850512553916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020946049567315</v>
+        <v>0.9400642910774755</v>
       </c>
       <c r="D15">
-        <v>1.028846590368057</v>
+        <v>1.029597570092013</v>
       </c>
       <c r="E15">
-        <v>1.030189062087951</v>
+        <v>0.9596462624169927</v>
       </c>
       <c r="F15">
-        <v>1.037201782521287</v>
+        <v>0.9573496482925086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029555906069241</v>
+        <v>1.04800300831574</v>
       </c>
       <c r="J15">
-        <v>1.027586698515009</v>
+        <v>0.9719942858358552</v>
       </c>
       <c r="K15">
-        <v>1.032424512714591</v>
+        <v>1.043913150207114</v>
       </c>
       <c r="L15">
-        <v>1.033761961831765</v>
+        <v>0.9752951186801025</v>
       </c>
       <c r="M15">
-        <v>1.040748679270769</v>
+        <v>0.9730466500534515</v>
       </c>
       <c r="N15">
-        <v>1.029045989492742</v>
+        <v>0.973374629211045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021792694161462</v>
+        <v>0.9448723375458798</v>
       </c>
       <c r="D16">
-        <v>1.029063593663635</v>
+        <v>1.030771612411838</v>
       </c>
       <c r="E16">
-        <v>1.030966040613384</v>
+        <v>0.9638162575846041</v>
       </c>
       <c r="F16">
-        <v>1.038089951519511</v>
+        <v>0.9620702321611824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029559117975007</v>
+        <v>1.048289357867212</v>
       </c>
       <c r="J16">
-        <v>1.028208645405253</v>
+        <v>0.9753733465372251</v>
       </c>
       <c r="K16">
-        <v>1.032526011298701</v>
+        <v>1.044571533557892</v>
       </c>
       <c r="L16">
-        <v>1.034421590726031</v>
+        <v>0.9788323635066938</v>
       </c>
       <c r="M16">
-        <v>1.041520032120772</v>
+        <v>0.9771210313184817</v>
       </c>
       <c r="N16">
-        <v>1.029668819618909</v>
+        <v>0.9767584885661946</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.022323615771931</v>
+        <v>0.9478306417321068</v>
       </c>
       <c r="D17">
-        <v>1.029199559676678</v>
+        <v>1.03150038928846</v>
       </c>
       <c r="E17">
-        <v>1.031453377401597</v>
+        <v>0.966385494153959</v>
       </c>
       <c r="F17">
-        <v>1.038647121976612</v>
+        <v>0.9649786248522005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029560546404202</v>
+        <v>1.048463099425805</v>
       </c>
       <c r="J17">
-        <v>1.028598501782261</v>
+        <v>0.9774525326330226</v>
       </c>
       <c r="K17">
-        <v>1.032589272239751</v>
+        <v>1.044977760623805</v>
       </c>
       <c r="L17">
-        <v>1.034835139739719</v>
+        <v>0.9810097464633778</v>
       </c>
       <c r="M17">
-        <v>1.042003762906309</v>
+        <v>0.9796298938512272</v>
       </c>
       <c r="N17">
-        <v>1.030059229636689</v>
+        <v>0.9788406273447338</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022633238848842</v>
+        <v>0.9495362877451486</v>
       </c>
       <c r="D18">
-        <v>1.029278809869972</v>
+        <v>1.031922726886213</v>
       </c>
       <c r="E18">
-        <v>1.03173761916036</v>
+        <v>0.9678680329210874</v>
       </c>
       <c r="F18">
-        <v>1.038972128104004</v>
+        <v>0.9666568595532715</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029561167926103</v>
+        <v>1.048562326292331</v>
       </c>
       <c r="J18">
-        <v>1.02882580069113</v>
+        <v>0.9786513192533032</v>
       </c>
       <c r="K18">
-        <v>1.032626024211051</v>
+        <v>1.045212280040765</v>
       </c>
       <c r="L18">
-        <v>1.035076278268112</v>
+        <v>0.9822654559612197</v>
       </c>
       <c r="M18">
-        <v>1.042285873631966</v>
+        <v>0.9810770786392715</v>
       </c>
       <c r="N18">
-        <v>1.03028685133608</v>
+        <v>0.9800411163795183</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02273880323527</v>
+        <v>0.9501145774253006</v>
       </c>
       <c r="D19">
-        <v>1.029305822478735</v>
+        <v>1.032066269069293</v>
       </c>
       <c r="E19">
-        <v>1.031834536082859</v>
+        <v>0.9683708808154986</v>
       </c>
       <c r="F19">
-        <v>1.039082950004158</v>
+        <v>0.9672260837796619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029561343914426</v>
+        <v>1.048595802006759</v>
       </c>
       <c r="J19">
-        <v>1.02890328728206</v>
+        <v>0.9790577592334666</v>
       </c>
       <c r="K19">
-        <v>1.032638530682611</v>
+        <v>1.045291834544301</v>
       </c>
       <c r="L19">
-        <v>1.035158487224475</v>
+        <v>0.9826912467026595</v>
       </c>
       <c r="M19">
-        <v>1.042382059235768</v>
+        <v>0.9815678485946833</v>
       </c>
       <c r="N19">
-        <v>1.030364447966857</v>
+        <v>0.9804481335510729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022266658587825</v>
+        <v>0.947515319733174</v>
       </c>
       <c r="D20">
-        <v>1.029184977633886</v>
+        <v>1.031422482822579</v>
       </c>
       <c r="E20">
-        <v>1.031401092208852</v>
+        <v>0.9661115151297454</v>
       </c>
       <c r="F20">
-        <v>1.038587341033059</v>
+        <v>0.9646684801205178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029560415031944</v>
+        <v>1.048444677328424</v>
       </c>
       <c r="J20">
-        <v>1.02855668401827</v>
+        <v>0.9772309133163158</v>
       </c>
       <c r="K20">
-        <v>1.032582500137955</v>
+        <v>1.044934427455083</v>
       </c>
       <c r="L20">
-        <v>1.034790777901108</v>
+        <v>0.9807776285025039</v>
       </c>
       <c r="M20">
-        <v>1.041951867472192</v>
+        <v>0.9793624068464687</v>
       </c>
       <c r="N20">
-        <v>1.030017352486677</v>
+        <v>0.9786186933031774</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020731017553108</v>
+        <v>0.9388248728501456</v>
       </c>
       <c r="D21">
-        <v>1.02879144133297</v>
+        <v>1.029297074179585</v>
       </c>
       <c r="E21">
-        <v>1.029991755644657</v>
+        <v>0.958572469942798</v>
       </c>
       <c r="F21">
-        <v>1.036976268817576</v>
+        <v>0.9561340374635183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029554909994162</v>
+        <v>1.047928481211587</v>
       </c>
       <c r="J21">
-        <v>1.02742868637165</v>
+        <v>0.9711232953331475</v>
       </c>
       <c r="K21">
-        <v>1.032398615060048</v>
+        <v>1.043743878990856</v>
       </c>
       <c r="L21">
-        <v>1.033594398522078</v>
+        <v>0.9743836304504006</v>
       </c>
       <c r="M21">
-        <v>1.040552777442377</v>
+        <v>0.9719970093496462</v>
       </c>
       <c r="N21">
-        <v>1.028887752954016</v>
+        <v>0.9725024018019194</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019764970093797</v>
+        <v>0.9331616882943194</v>
       </c>
       <c r="D22">
-        <v>1.0285435183423</v>
+        <v>1.027935616601712</v>
       </c>
       <c r="E22">
-        <v>1.029105498996336</v>
+        <v>0.9536720810642069</v>
       </c>
       <c r="F22">
-        <v>1.035963451356113</v>
+        <v>0.950586141127755</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029549549582982</v>
+        <v>1.047584783462657</v>
       </c>
       <c r="J22">
-        <v>1.026718563481539</v>
+        <v>0.967144053203864</v>
       </c>
       <c r="K22">
-        <v>1.032281686918611</v>
+        <v>1.04297325966296</v>
       </c>
       <c r="L22">
-        <v>1.032841461854167</v>
+        <v>0.9702207718580957</v>
       </c>
       <c r="M22">
-        <v>1.039672711468772</v>
+        <v>0.9672044427999792</v>
       </c>
       <c r="N22">
-        <v>1.028176621607948</v>
+        <v>0.9685175086923872</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020277142110416</v>
+        <v>0.9361837723563776</v>
       </c>
       <c r="D23">
-        <v>1.028674992704237</v>
+        <v>1.028659752490994</v>
       </c>
       <c r="E23">
-        <v>1.029575336107435</v>
+        <v>0.9562858796420246</v>
       </c>
       <c r="F23">
-        <v>1.036500354652359</v>
+        <v>0.9535453790344368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029552570889732</v>
+        <v>1.047768804063363</v>
       </c>
       <c r="J23">
-        <v>1.027095100184892</v>
+        <v>0.9692674070650069</v>
       </c>
       <c r="K23">
-        <v>1.032343796520178</v>
+        <v>1.043383882872786</v>
       </c>
       <c r="L23">
-        <v>1.033240677867888</v>
+        <v>0.972441820686109</v>
       </c>
       <c r="M23">
-        <v>1.040139290747095</v>
+        <v>0.9697612171678539</v>
       </c>
       <c r="N23">
-        <v>1.028553693036609</v>
+        <v>0.9706438779595645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022292395255737</v>
+        <v>0.947657861404458</v>
       </c>
       <c r="D24">
-        <v>1.029191566806252</v>
+        <v>1.031457693882518</v>
       </c>
       <c r="E24">
-        <v>1.031424717678507</v>
+        <v>0.9662353639027154</v>
       </c>
       <c r="F24">
-        <v>1.038614353412237</v>
+        <v>0.9648086771702007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029560475047559</v>
+        <v>1.048453008012139</v>
       </c>
       <c r="J24">
-        <v>1.028575579967526</v>
+        <v>0.977331096569595</v>
       </c>
       <c r="K24">
-        <v>1.032585560613934</v>
+        <v>1.044954015343837</v>
       </c>
       <c r="L24">
-        <v>1.034810823346057</v>
+        <v>0.9808825567302992</v>
       </c>
       <c r="M24">
-        <v>1.04197531691229</v>
+        <v>0.9794833225831201</v>
       </c>
       <c r="N24">
-        <v>1.030036275270348</v>
+        <v>0.9787190188281674</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024628864977666</v>
+        <v>0.9602003410652746</v>
       </c>
       <c r="D25">
-        <v>1.029788797171083</v>
+        <v>1.034597024803501</v>
       </c>
       <c r="E25">
-        <v>1.033570305248743</v>
+        <v>0.9771572819130708</v>
       </c>
       <c r="F25">
-        <v>1.041068256048337</v>
+        <v>0.9771726338542437</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029561340424493</v>
+        <v>1.04916411652345</v>
       </c>
       <c r="J25">
-        <v>1.030289773934296</v>
+        <v>0.9861455907071072</v>
       </c>
       <c r="K25">
-        <v>1.032860338570589</v>
+        <v>1.046680998318037</v>
       </c>
       <c r="L25">
-        <v>1.036629858356135</v>
+        <v>0.9901208636039753</v>
       </c>
       <c r="M25">
-        <v>1.044104320226557</v>
+        <v>0.990135962683764</v>
       </c>
       <c r="N25">
-        <v>1.031752903589171</v>
+        <v>0.9875460305583916</v>
       </c>
     </row>
   </sheetData>
